--- a/Libraries/Vehicle/Springs/Axle3/sm_car_data_Springs_Axle3_Linear.xlsx
+++ b/Libraries/Vehicle/Springs/Axle3/sm_car_data_Springs_Axle3_Linear.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Springs\Axle3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B664D911-C4CA-4A79-97DE-E0C2EADE6BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89417A25-ACCD-4FAF-9B7C-43E46AA418CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7800" yWindow="3675" windowWidth="21600" windowHeight="11295" xr2:uid="{42C8BEA0-BCB5-4829-A42D-10023EB49834}"/>
+    <workbookView xWindow="3510" yWindow="3330" windowWidth="21600" windowHeight="12870" xr2:uid="{42C8BEA0-BCB5-4829-A42D-10023EB49834}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus_Makhulu_3Axle" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
   <si>
     <t>Units</t>
   </si>
@@ -100,6 +100,15 @@
   </si>
   <si>
     <t>Axle3</t>
+  </si>
+  <si>
+    <t>fPreload</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Set either xPreload or fPreload to a nonzero value</t>
   </si>
 </sst>
 </file>
@@ -205,7 +214,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -554,14 +577,14 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="J26" sqref="J26"/>
+      <selection pane="bottomRight" activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,7 +593,9 @@
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -699,6 +724,9 @@
       <c r="D8" t="s">
         <v>11</v>
       </c>
+      <c r="E8" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="6">
@@ -709,201 +737,262 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>10</v>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="6">
-        <v>5.5E-2</v>
-      </c>
-      <c r="G9" s="6">
-        <v>0.23499999999999999</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="12"/>
       <c r="H9" s="6">
-        <v>0.73650000000000015</v>
-      </c>
-      <c r="J9" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+      <c r="A10" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="B10" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="6">
-        <v>-1.2999999999999999E-3</v>
+        <v>5.5E-2</v>
       </c>
       <c r="G10" s="6">
-        <v>0.53050000000000008</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="H10" s="6">
-        <v>0.26040000000000008</v>
+        <v>0.73650000000000015</v>
+      </c>
+      <c r="J10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="5" t="s">
-        <v>14</v>
+      <c r="B11" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="13">
-        <v>140000</v>
+        <v>11</v>
+      </c>
+      <c r="F11" s="6">
+        <v>-1.2999999999999999E-3</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0.53050000000000008</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0.26040000000000008</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="6">
-        <v>5.5E-2</v>
+      <c r="H12" s="13">
+        <v>140000</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>10</v>
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="6">
+      <c r="E13" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="6">
         <v>5.5E-2</v>
-      </c>
-      <c r="G13" s="6">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="H13" s="6">
-        <v>0.73650000000000015</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
-      <c r="B14" s="11" t="s">
-        <v>13</v>
+      <c r="B14" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="6">
-        <v>-1.2999999999999999E-3</v>
-      </c>
-      <c r="G14" s="6">
-        <v>0.53050000000000008</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="12"/>
       <c r="H14" s="6">
-        <v>0.26040000000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5" t="s">
-        <v>14</v>
+      <c r="A15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="13">
-        <v>140000</v>
+        <v>11</v>
+      </c>
+      <c r="F15" s="6">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0.73650000000000015</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
-      <c r="B16" s="5" t="s">
-        <v>16</v>
+      <c r="B16" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
+      <c r="F16" s="6">
+        <v>-1.2999999999999999E-3</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0.53050000000000008</v>
+      </c>
       <c r="H16" s="6">
+        <v>0.26040000000000008</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="13">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="6">
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="14"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="14"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="12"/>
+      <c r="H19" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="14"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="14"/>
-      <c r="H21" s="15"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="14"/>
-      <c r="H22" s="15"/>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="14"/>
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="14"/>
+      <c r="H24" s="15"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A9">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+  <conditionalFormatting sqref="A10 B10:C13 B15:C18">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+  <conditionalFormatting sqref="A15">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A21:A22">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+  <conditionalFormatting sqref="A23:A24">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:B5 B6:B8 A17:B20">
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+  <conditionalFormatting sqref="A4:B5 B6:B8 A20:B22">
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9:C16">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+  <conditionalFormatting sqref="B19">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
